--- a/src/test/resources/datasheets/Verify_ChangeRequireBy_ExistingHeaderLevel.xlsx
+++ b/src/test/resources/datasheets/Verify_ChangeRequireBy_ExistingHeaderLevel.xlsx
@@ -380,12 +380,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
